--- a/natmiOut/OldD2/LR-pairs_lrc2p/Efnb3-Ephb2.xlsx
+++ b/natmiOut/OldD2/LR-pairs_lrc2p/Efnb3-Ephb2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,6 +76,15 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>ECs</t>
+  </si>
+  <si>
+    <t>FAPs</t>
+  </si>
+  <si>
+    <t>M1</t>
+  </si>
+  <si>
     <t>sCs</t>
   </si>
   <si>
@@ -85,10 +94,7 @@
     <t>Ephb2</t>
   </si>
   <si>
-    <t>FAPs</t>
-  </si>
-  <si>
-    <t>M1</t>
+    <t>Neutro</t>
   </si>
 </sst>
 </file>
@@ -446,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T4"/>
+  <dimension ref="A1:T17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -519,61 +525,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D2" t="s">
         <v>21</v>
       </c>
-      <c r="C2" t="s">
-        <v>22</v>
-      </c>
-      <c r="D2" t="s">
-        <v>23</v>
-      </c>
       <c r="E2">
         <v>1</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G2">
-        <v>0.539735491108376</v>
+        <v>0.2222225</v>
       </c>
       <c r="H2">
-        <v>0.539735491108376</v>
+        <v>0.444445</v>
       </c>
       <c r="I2">
-        <v>1</v>
+        <v>0.2026211956904957</v>
       </c>
       <c r="J2">
-        <v>1</v>
+        <v>0.1780425712608937</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>2.8783055092127</v>
+        <v>3.082080666666666</v>
       </c>
       <c r="N2">
-        <v>2.8783055092127</v>
+        <v>9.246241999999999</v>
       </c>
       <c r="O2">
-        <v>0.83605129775894</v>
+        <v>0.822428495022819</v>
       </c>
       <c r="P2">
-        <v>0.83605129775894</v>
+        <v>0.8679967027127143</v>
       </c>
       <c r="Q2">
-        <v>1.553523637574861</v>
+        <v>0.6849076709483332</v>
       </c>
       <c r="R2">
-        <v>1.553523637574861</v>
+        <v>4.10944602569</v>
       </c>
       <c r="S2">
-        <v>0.83605129775894</v>
+        <v>0.1666414450314585</v>
       </c>
       <c r="T2">
-        <v>0.83605129775894</v>
+        <v>0.1545403647969492</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -581,61 +587,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="C3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D3" t="s">
         <v>22</v>
       </c>
-      <c r="D3" t="s">
-        <v>24</v>
-      </c>
       <c r="E3">
         <v>1</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G3">
-        <v>0.539735491108376</v>
+        <v>0.2222225</v>
       </c>
       <c r="H3">
-        <v>0.539735491108376</v>
+        <v>0.444445</v>
       </c>
       <c r="I3">
-        <v>1</v>
+        <v>0.2026211956904957</v>
       </c>
       <c r="J3">
-        <v>1</v>
+        <v>0.1780425712608937</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>0.0166510490548062</v>
+        <v>0.01806466666666666</v>
       </c>
       <c r="N3">
-        <v>0.0166510490548062</v>
+        <v>0.05419399999999999</v>
       </c>
       <c r="O3">
-        <v>0.004836571770008642</v>
+        <v>0.004820411347579552</v>
       </c>
       <c r="P3">
-        <v>0.004836571770008642</v>
+        <v>0.005087495363717804</v>
       </c>
       <c r="Q3">
-        <v>0.008987162139065485</v>
+        <v>0.004014375388333332</v>
       </c>
       <c r="R3">
-        <v>0.008987162139065485</v>
+        <v>0.02408625233</v>
       </c>
       <c r="S3">
-        <v>0.004836571770008642</v>
+        <v>0.0009767175109666026</v>
       </c>
       <c r="T3">
-        <v>0.004836571770008642</v>
+        <v>0.0009057907558341934</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -643,61 +649,867 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D4" t="s">
+        <v>26</v>
+      </c>
+      <c r="E4">
+        <v>1</v>
+      </c>
+      <c r="F4">
+        <v>0.5</v>
+      </c>
+      <c r="G4">
+        <v>0.2222225</v>
+      </c>
+      <c r="H4">
+        <v>0.444445</v>
+      </c>
+      <c r="I4">
+        <v>0.2026211956904957</v>
+      </c>
+      <c r="J4">
+        <v>0.1780425712608937</v>
+      </c>
+      <c r="K4">
+        <v>2</v>
+      </c>
+      <c r="L4">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M4">
+        <v>0.057175</v>
+      </c>
+      <c r="N4">
+        <v>0.171525</v>
+      </c>
+      <c r="O4">
+        <v>0.01525668997294134</v>
+      </c>
+      <c r="P4">
+        <v>0.0161020157630309</v>
+      </c>
+      <c r="Q4">
+        <v>0.0127055714375</v>
+      </c>
+      <c r="R4">
+        <v>0.076233428625</v>
+      </c>
+      <c r="S4">
+        <v>0.00309132876459657</v>
+      </c>
+      <c r="T4">
+        <v>0.002866844288933462</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20">
+      <c r="A5" t="s">
+        <v>20</v>
+      </c>
+      <c r="B5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D5" t="s">
+        <v>23</v>
+      </c>
+      <c r="E5">
+        <v>1</v>
+      </c>
+      <c r="F5">
+        <v>0.5</v>
+      </c>
+      <c r="G5">
+        <v>0.2222225</v>
+      </c>
+      <c r="H5">
+        <v>0.444445</v>
+      </c>
+      <c r="I5">
+        <v>0.2026211956904957</v>
+      </c>
+      <c r="J5">
+        <v>0.1780425712608937</v>
+      </c>
+      <c r="K5">
+        <v>2</v>
+      </c>
+      <c r="L5">
+        <v>1</v>
+      </c>
+      <c r="M5">
+        <v>0.590216</v>
+      </c>
+      <c r="N5">
+        <v>1.180432</v>
+      </c>
+      <c r="O5">
+        <v>0.1574944036566601</v>
+      </c>
+      <c r="P5">
+        <v>0.1108137861605369</v>
+      </c>
+      <c r="Q5">
+        <v>0.13115927506</v>
+      </c>
+      <c r="R5">
+        <v>0.52463710024</v>
+      </c>
+      <c r="S5">
+        <v>0.03191170438347406</v>
+      </c>
+      <c r="T5">
+        <v>0.01972957141917682</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
+      <c r="A6" t="s">
         <v>21</v>
       </c>
-      <c r="C4" t="s">
+      <c r="B6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C6" t="s">
+        <v>25</v>
+      </c>
+      <c r="D6" t="s">
+        <v>21</v>
+      </c>
+      <c r="E6">
+        <v>1</v>
+      </c>
+      <c r="F6">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G6">
+        <v>0.2207143333333333</v>
+      </c>
+      <c r="H6">
+        <v>0.662143</v>
+      </c>
+      <c r="I6">
+        <v>0.2012460580095654</v>
+      </c>
+      <c r="J6">
+        <v>0.2652513635261999</v>
+      </c>
+      <c r="K6">
+        <v>3</v>
+      </c>
+      <c r="L6">
+        <v>1</v>
+      </c>
+      <c r="M6">
+        <v>3.082080666666666</v>
+      </c>
+      <c r="N6">
+        <v>9.246241999999999</v>
+      </c>
+      <c r="O6">
+        <v>0.822428495022819</v>
+      </c>
+      <c r="P6">
+        <v>0.8679967027127143</v>
+      </c>
+      <c r="Q6">
+        <v>0.6802593796228888</v>
+      </c>
+      <c r="R6">
+        <v>6.122334416606</v>
+      </c>
+      <c r="S6">
+        <v>0.1655104926180818</v>
+      </c>
+      <c r="T6">
+        <v>0.2302373089307931</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
+      <c r="A7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" t="s">
+        <v>24</v>
+      </c>
+      <c r="C7" t="s">
+        <v>25</v>
+      </c>
+      <c r="D7" t="s">
         <v>22</v>
       </c>
-      <c r="D4" t="s">
-        <v>20</v>
-      </c>
-      <c r="E4">
-        <v>1</v>
-      </c>
-      <c r="F4">
-        <v>1</v>
-      </c>
-      <c r="G4">
-        <v>0.539735491108376</v>
-      </c>
-      <c r="H4">
-        <v>0.539735491108376</v>
-      </c>
-      <c r="I4">
-        <v>1</v>
-      </c>
-      <c r="J4">
-        <v>1</v>
-      </c>
-      <c r="K4">
-        <v>1</v>
-      </c>
-      <c r="L4">
-        <v>1</v>
-      </c>
-      <c r="M4">
-        <v>0.547781365742757</v>
-      </c>
-      <c r="N4">
-        <v>0.547781365742757</v>
-      </c>
-      <c r="O4">
-        <v>0.1591121304710512</v>
-      </c>
-      <c r="P4">
-        <v>0.1591121304710512</v>
-      </c>
-      <c r="Q4">
-        <v>0.2956570444591839</v>
-      </c>
-      <c r="R4">
-        <v>0.2956570444591839</v>
-      </c>
-      <c r="S4">
-        <v>0.1591121304710512</v>
-      </c>
-      <c r="T4">
-        <v>0.1591121304710512</v>
+      <c r="E7">
+        <v>1</v>
+      </c>
+      <c r="F7">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G7">
+        <v>0.2207143333333333</v>
+      </c>
+      <c r="H7">
+        <v>0.662143</v>
+      </c>
+      <c r="I7">
+        <v>0.2012460580095654</v>
+      </c>
+      <c r="J7">
+        <v>0.2652513635261999</v>
+      </c>
+      <c r="K7">
+        <v>3</v>
+      </c>
+      <c r="L7">
+        <v>1</v>
+      </c>
+      <c r="M7">
+        <v>0.01806466666666666</v>
+      </c>
+      <c r="N7">
+        <v>0.05419399999999999</v>
+      </c>
+      <c r="O7">
+        <v>0.004820411347579552</v>
+      </c>
+      <c r="P7">
+        <v>0.005087495363717804</v>
+      </c>
+      <c r="Q7">
+        <v>0.003987130860222222</v>
+      </c>
+      <c r="R7">
+        <v>0.035884177742</v>
+      </c>
+      <c r="S7">
+        <v>0.0009700887816849617</v>
+      </c>
+      <c r="T7">
+        <v>0.001349465082159368</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" t="s">
+        <v>24</v>
+      </c>
+      <c r="C8" t="s">
+        <v>25</v>
+      </c>
+      <c r="D8" t="s">
+        <v>26</v>
+      </c>
+      <c r="E8">
+        <v>1</v>
+      </c>
+      <c r="F8">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G8">
+        <v>0.2207143333333333</v>
+      </c>
+      <c r="H8">
+        <v>0.662143</v>
+      </c>
+      <c r="I8">
+        <v>0.2012460580095654</v>
+      </c>
+      <c r="J8">
+        <v>0.2652513635261999</v>
+      </c>
+      <c r="K8">
+        <v>2</v>
+      </c>
+      <c r="L8">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M8">
+        <v>0.057175</v>
+      </c>
+      <c r="N8">
+        <v>0.171525</v>
+      </c>
+      <c r="O8">
+        <v>0.01525668997294134</v>
+      </c>
+      <c r="P8">
+        <v>0.0161020157630309</v>
+      </c>
+      <c r="Q8">
+        <v>0.01261934200833333</v>
+      </c>
+      <c r="R8">
+        <v>0.113574078075</v>
+      </c>
+      <c r="S8">
+        <v>0.003070348715328507</v>
+      </c>
+      <c r="T8">
+        <v>0.004271081636664311</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" t="s">
+        <v>25</v>
+      </c>
+      <c r="D9" t="s">
+        <v>23</v>
+      </c>
+      <c r="E9">
+        <v>1</v>
+      </c>
+      <c r="F9">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G9">
+        <v>0.2207143333333333</v>
+      </c>
+      <c r="H9">
+        <v>0.662143</v>
+      </c>
+      <c r="I9">
+        <v>0.2012460580095654</v>
+      </c>
+      <c r="J9">
+        <v>0.2652513635261999</v>
+      </c>
+      <c r="K9">
+        <v>2</v>
+      </c>
+      <c r="L9">
+        <v>1</v>
+      </c>
+      <c r="M9">
+        <v>0.590216</v>
+      </c>
+      <c r="N9">
+        <v>1.180432</v>
+      </c>
+      <c r="O9">
+        <v>0.1574944036566601</v>
+      </c>
+      <c r="P9">
+        <v>0.1108137861605369</v>
+      </c>
+      <c r="Q9">
+        <v>0.1302691309626667</v>
+      </c>
+      <c r="R9">
+        <v>0.781614785776</v>
+      </c>
+      <c r="S9">
+        <v>0.03169512789447013</v>
+      </c>
+      <c r="T9">
+        <v>0.02939350787658315</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" t="s">
+        <v>24</v>
+      </c>
+      <c r="C10" t="s">
+        <v>25</v>
+      </c>
+      <c r="D10" t="s">
+        <v>21</v>
+      </c>
+      <c r="E10">
+        <v>1</v>
+      </c>
+      <c r="F10">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G10">
+        <v>0.08209333333333334</v>
+      </c>
+      <c r="H10">
+        <v>0.24628</v>
+      </c>
+      <c r="I10">
+        <v>0.07485222854669725</v>
+      </c>
+      <c r="J10">
+        <v>0.09865860668954066</v>
+      </c>
+      <c r="K10">
+        <v>3</v>
+      </c>
+      <c r="L10">
+        <v>1</v>
+      </c>
+      <c r="M10">
+        <v>3.082080666666666</v>
+      </c>
+      <c r="N10">
+        <v>9.246241999999999</v>
+      </c>
+      <c r="O10">
+        <v>0.822428495022819</v>
+      </c>
+      <c r="P10">
+        <v>0.8679967027127143</v>
+      </c>
+      <c r="Q10">
+        <v>0.2530182755288889</v>
+      </c>
+      <c r="R10">
+        <v>2.27716447976</v>
+      </c>
+      <c r="S10">
+        <v>0.06156060567276431</v>
+      </c>
+      <c r="T10">
+        <v>0.08563534530075183</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" t="s">
+        <v>22</v>
+      </c>
+      <c r="B11" t="s">
+        <v>24</v>
+      </c>
+      <c r="C11" t="s">
+        <v>25</v>
+      </c>
+      <c r="D11" t="s">
+        <v>22</v>
+      </c>
+      <c r="E11">
+        <v>1</v>
+      </c>
+      <c r="F11">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G11">
+        <v>0.08209333333333334</v>
+      </c>
+      <c r="H11">
+        <v>0.24628</v>
+      </c>
+      <c r="I11">
+        <v>0.07485222854669725</v>
+      </c>
+      <c r="J11">
+        <v>0.09865860668954066</v>
+      </c>
+      <c r="K11">
+        <v>3</v>
+      </c>
+      <c r="L11">
+        <v>1</v>
+      </c>
+      <c r="M11">
+        <v>0.01806466666666666</v>
+      </c>
+      <c r="N11">
+        <v>0.05419399999999999</v>
+      </c>
+      <c r="O11">
+        <v>0.004820411347579552</v>
+      </c>
+      <c r="P11">
+        <v>0.005087495363717804</v>
+      </c>
+      <c r="Q11">
+        <v>0.001482988702222222</v>
+      </c>
+      <c r="R11">
+        <v>0.01334689832</v>
+      </c>
+      <c r="S11">
+        <v>0.0003608185318781175</v>
+      </c>
+      <c r="T11">
+        <v>0.0005019252041238965</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" t="s">
+        <v>24</v>
+      </c>
+      <c r="C12" t="s">
+        <v>25</v>
+      </c>
+      <c r="D12" t="s">
+        <v>26</v>
+      </c>
+      <c r="E12">
+        <v>1</v>
+      </c>
+      <c r="F12">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G12">
+        <v>0.08209333333333334</v>
+      </c>
+      <c r="H12">
+        <v>0.24628</v>
+      </c>
+      <c r="I12">
+        <v>0.07485222854669725</v>
+      </c>
+      <c r="J12">
+        <v>0.09865860668954066</v>
+      </c>
+      <c r="K12">
+        <v>2</v>
+      </c>
+      <c r="L12">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M12">
+        <v>0.057175</v>
+      </c>
+      <c r="N12">
+        <v>0.171525</v>
+      </c>
+      <c r="O12">
+        <v>0.01525668997294134</v>
+      </c>
+      <c r="P12">
+        <v>0.0161020157630309</v>
+      </c>
+      <c r="Q12">
+        <v>0.004693686333333334</v>
+      </c>
+      <c r="R12">
+        <v>0.042243177</v>
+      </c>
+      <c r="S12">
+        <v>0.001141997244720709</v>
+      </c>
+      <c r="T12">
+        <v>0.001588602440073649</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" t="s">
+        <v>25</v>
+      </c>
+      <c r="D13" t="s">
+        <v>23</v>
+      </c>
+      <c r="E13">
+        <v>1</v>
+      </c>
+      <c r="F13">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G13">
+        <v>0.08209333333333334</v>
+      </c>
+      <c r="H13">
+        <v>0.24628</v>
+      </c>
+      <c r="I13">
+        <v>0.07485222854669725</v>
+      </c>
+      <c r="J13">
+        <v>0.09865860668954066</v>
+      </c>
+      <c r="K13">
+        <v>2</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>0.590216</v>
+      </c>
+      <c r="N13">
+        <v>1.180432</v>
+      </c>
+      <c r="O13">
+        <v>0.1574944036566601</v>
+      </c>
+      <c r="P13">
+        <v>0.1108137861605369</v>
+      </c>
+      <c r="Q13">
+        <v>0.04845279882666666</v>
+      </c>
+      <c r="R13">
+        <v>0.29071679296</v>
+      </c>
+      <c r="S13">
+        <v>0.01178880709733412</v>
+      </c>
+      <c r="T13">
+        <v>0.01093273374459127</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>23</v>
+      </c>
+      <c r="B14" t="s">
+        <v>24</v>
+      </c>
+      <c r="C14" t="s">
+        <v>25</v>
+      </c>
+      <c r="D14" t="s">
+        <v>21</v>
+      </c>
+      <c r="E14">
+        <v>2</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>0.5717085</v>
+      </c>
+      <c r="H14">
+        <v>1.143417</v>
+      </c>
+      <c r="I14">
+        <v>0.5212805177532418</v>
+      </c>
+      <c r="J14">
+        <v>0.4580474585233657</v>
+      </c>
+      <c r="K14">
+        <v>3</v>
+      </c>
+      <c r="L14">
+        <v>1</v>
+      </c>
+      <c r="M14">
+        <v>3.082080666666666</v>
+      </c>
+      <c r="N14">
+        <v>9.246241999999999</v>
+      </c>
+      <c r="O14">
+        <v>0.822428495022819</v>
+      </c>
+      <c r="P14">
+        <v>0.8679967027127143</v>
+      </c>
+      <c r="Q14">
+        <v>1.762051714819</v>
+      </c>
+      <c r="R14">
+        <v>10.572310288914</v>
+      </c>
+      <c r="S14">
+        <v>0.4287159517005145</v>
+      </c>
+      <c r="T14">
+        <v>0.3975836836842202</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>23</v>
+      </c>
+      <c r="B15" t="s">
+        <v>24</v>
+      </c>
+      <c r="C15" t="s">
+        <v>25</v>
+      </c>
+      <c r="D15" t="s">
+        <v>22</v>
+      </c>
+      <c r="E15">
+        <v>2</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>0.5717085</v>
+      </c>
+      <c r="H15">
+        <v>1.143417</v>
+      </c>
+      <c r="I15">
+        <v>0.5212805177532418</v>
+      </c>
+      <c r="J15">
+        <v>0.4580474585233657</v>
+      </c>
+      <c r="K15">
+        <v>3</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>0.01806466666666666</v>
+      </c>
+      <c r="N15">
+        <v>0.05419399999999999</v>
+      </c>
+      <c r="O15">
+        <v>0.004820411347579552</v>
+      </c>
+      <c r="P15">
+        <v>0.005087495363717804</v>
+      </c>
+      <c r="Q15">
+        <v>0.010327723483</v>
+      </c>
+      <c r="R15">
+        <v>0.06196634089799999</v>
+      </c>
+      <c r="S15">
+        <v>0.002512786523049871</v>
+      </c>
+      <c r="T15">
+        <v>0.002330314321600346</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16" t="s">
+        <v>24</v>
+      </c>
+      <c r="C16" t="s">
+        <v>25</v>
+      </c>
+      <c r="D16" t="s">
+        <v>26</v>
+      </c>
+      <c r="E16">
+        <v>2</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>0.5717085</v>
+      </c>
+      <c r="H16">
+        <v>1.143417</v>
+      </c>
+      <c r="I16">
+        <v>0.5212805177532418</v>
+      </c>
+      <c r="J16">
+        <v>0.4580474585233657</v>
+      </c>
+      <c r="K16">
+        <v>2</v>
+      </c>
+      <c r="L16">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M16">
+        <v>0.057175</v>
+      </c>
+      <c r="N16">
+        <v>0.171525</v>
+      </c>
+      <c r="O16">
+        <v>0.01525668997294134</v>
+      </c>
+      <c r="P16">
+        <v>0.0161020157630309</v>
+      </c>
+      <c r="Q16">
+        <v>0.0326874334875</v>
+      </c>
+      <c r="R16">
+        <v>0.196124600925</v>
+      </c>
+      <c r="S16">
+        <v>0.007953015248295553</v>
+      </c>
+      <c r="T16">
+        <v>0.007375487397359477</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>24</v>
+      </c>
+      <c r="C17" t="s">
+        <v>25</v>
+      </c>
+      <c r="D17" t="s">
+        <v>23</v>
+      </c>
+      <c r="E17">
+        <v>2</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>0.5717085</v>
+      </c>
+      <c r="H17">
+        <v>1.143417</v>
+      </c>
+      <c r="I17">
+        <v>0.5212805177532418</v>
+      </c>
+      <c r="J17">
+        <v>0.4580474585233657</v>
+      </c>
+      <c r="K17">
+        <v>2</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>0.590216</v>
+      </c>
+      <c r="N17">
+        <v>1.180432</v>
+      </c>
+      <c r="O17">
+        <v>0.1574944036566601</v>
+      </c>
+      <c r="P17">
+        <v>0.1108137861605369</v>
+      </c>
+      <c r="Q17">
+        <v>0.337431504036</v>
+      </c>
+      <c r="R17">
+        <v>1.349726016144</v>
+      </c>
+      <c r="S17">
+        <v>0.08209876428138187</v>
+      </c>
+      <c r="T17">
+        <v>0.05075797312018563</v>
       </c>
     </row>
   </sheetData>
